--- a/SOUN.xlsx
+++ b/SOUN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0E2408-A8B2-4FE1-ACE8-41AAF0CDD4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D87A4-1939-43EC-9661-1199F8E266FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48135" yWindow="3465" windowWidth="38700" windowHeight="15345" xr2:uid="{388E8CDF-D825-4116-AD94-A848451F8B3D}"/>
+    <workbookView xWindow="-28230" yWindow="1470" windowWidth="27480" windowHeight="18705" xr2:uid="{388E8CDF-D825-4116-AD94-A848451F8B3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Price</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>CEO: Keyvan Mohajer</t>
+  </si>
+  <si>
+    <t>SoundHound</t>
   </si>
 </sst>
 </file>
@@ -594,21 +597,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9717194D-9671-44D3-8764-98556B306F2F}">
-  <dimension ref="L2:N9"/>
+  <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
         <v>1</v>
       </c>
@@ -620,16 +628,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>1614.2970825</v>
-      </c>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+        <v>1653.7576778500002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -640,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -651,17 +659,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>1414.1410825</v>
-      </c>
-    </row>
-    <row r="9" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L9" t="s">
+        <v>1453.6016778500002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -672,9 +680,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D72AB54-66BD-49B2-8A44-55A8BFBB3925}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -688,12 +696,12 @@
     <col min="3" max="14" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -730,8 +738,63 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <v>2021</v>
+      </c>
+      <c r="S2">
+        <f>+R2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:AE2" si="0">+S2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -764,7 +827,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -797,48 +860,48 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
-        <f>+E3-E4</f>
+        <f t="shared" ref="E5:L5" si="1">+E3-E4</f>
         <v>8.6029999999999998</v>
       </c>
       <c r="F5" s="5">
-        <f>+F3-F4</f>
+        <f t="shared" si="1"/>
         <v>6.7459999999999996</v>
       </c>
       <c r="G5" s="5">
-        <f>+G3-G4</f>
+        <f t="shared" si="1"/>
         <v>4.7309999999999999</v>
       </c>
       <c r="H5" s="5">
-        <f>+H3-H4</f>
+        <f t="shared" si="1"/>
         <v>6.9209999999999994</v>
       </c>
       <c r="I5" s="5">
-        <f>+I3-I4</f>
+        <f t="shared" si="1"/>
         <v>9.6780000000000008</v>
       </c>
       <c r="J5" s="5">
-        <f>+J3-J4</f>
+        <f t="shared" si="1"/>
         <v>13.235999999999999</v>
       </c>
       <c r="K5" s="5">
-        <f>+K3-K4</f>
+        <f t="shared" si="1"/>
         <v>6.9249999999999998</v>
       </c>
       <c r="L5" s="5">
-        <f>+L3-L4</f>
+        <f t="shared" si="1"/>
         <v>8.4819999999999993</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -871,7 +934,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -904,7 +967,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
@@ -937,89 +1000,89 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
-        <f>+E8+E7+E6</f>
+        <f t="shared" ref="E9:L9" si="2">+E8+E7+E6</f>
         <v>35.674999999999997</v>
       </c>
       <c r="F9" s="5">
-        <f>+F8+F7+F6</f>
+        <f t="shared" si="2"/>
         <v>35.698999999999998</v>
       </c>
       <c r="G9" s="5">
-        <f>+G8+G7+G6</f>
+        <f t="shared" si="2"/>
         <v>26.349</v>
       </c>
       <c r="H9" s="5">
-        <f>+H8+H7+H6</f>
+        <f t="shared" si="2"/>
         <v>23.238</v>
       </c>
       <c r="I9" s="5">
-        <f>+I8+I7+I6</f>
+        <f t="shared" si="2"/>
         <v>24.207999999999998</v>
       </c>
       <c r="J9" s="5">
-        <f>+J8+J7+J6</f>
+        <f t="shared" si="2"/>
         <v>27.448999999999998</v>
       </c>
       <c r="K9" s="5">
-        <f>+K8+K7+K6</f>
+        <f t="shared" si="2"/>
         <v>30.686999999999998</v>
       </c>
       <c r="L9" s="5">
-        <f>+L8+L7+L6</f>
+        <f t="shared" si="2"/>
         <v>30.928000000000001</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <f>+E5-E9</f>
+        <f t="shared" ref="E10:L10" si="3">+E5-E9</f>
         <v>-27.071999999999996</v>
       </c>
       <c r="F10" s="5">
-        <f>+F5-F9</f>
+        <f t="shared" si="3"/>
         <v>-28.952999999999999</v>
       </c>
       <c r="G10" s="5">
-        <f>+G5-G9</f>
+        <f t="shared" si="3"/>
         <v>-21.618000000000002</v>
       </c>
       <c r="H10" s="5">
-        <f>+H5-H9</f>
+        <f t="shared" si="3"/>
         <v>-16.317</v>
       </c>
       <c r="I10" s="5">
-        <f>+I5-I9</f>
+        <f t="shared" si="3"/>
         <v>-14.529999999999998</v>
       </c>
       <c r="J10" s="5">
-        <f>+J5-J9</f>
+        <f t="shared" si="3"/>
         <v>-14.212999999999999</v>
       </c>
       <c r="K10" s="5">
-        <f>+K5-K9</f>
+        <f t="shared" si="3"/>
         <v>-23.761999999999997</v>
       </c>
       <c r="L10" s="5">
-        <f>+L5-L9</f>
+        <f t="shared" si="3"/>
         <v>-22.446000000000002</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>27</v>
       </c>

--- a/SOUN.xlsx
+++ b/SOUN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D87A4-1939-43EC-9661-1199F8E266FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E9E14-CB89-49B6-A20D-B60B9CD031CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28230" yWindow="1470" windowWidth="27480" windowHeight="18705" xr2:uid="{388E8CDF-D825-4116-AD94-A848451F8B3D}"/>
+    <workbookView xWindow="-26790" yWindow="705" windowWidth="26175" windowHeight="13305" activeTab="1" xr2:uid="{388E8CDF-D825-4116-AD94-A848451F8B3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -205,6 +205,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,9 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9717194D-9671-44D3-8764-98556B306F2F}">
   <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -613,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>4.6100000000000003</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -634,7 +633,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>1653.7576778500002</v>
+        <v>5739.7229600000001</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -665,7 +664,7 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>1453.6016778500002</v>
+        <v>5539.5669600000001</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -682,11 +681,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D72AB54-66BD-49B2-8A44-55A8BFBB3925}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="I3:L3"/>
+      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -824,8 +823,20 @@
       <c r="L3" s="7">
         <v>13.462</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="M3" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="N3" s="7">
+        <f>83.5-M3-L3-K3</f>
+        <v>33.344000000000001</v>
+      </c>
+      <c r="U3" s="6">
+        <f>SUM(K3:N3)</f>
+        <v>83.5</v>
+      </c>
+      <c r="V3" s="6">
+        <v>165</v>
+      </c>
     </row>
     <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -1108,8 +1119,18 @@
         <f>+L3/H3-1</f>
         <v>0.53833847560278825</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="M14" s="11">
+        <f>+M3/I3-1</f>
+        <v>0.89176967138981</v>
+      </c>
+      <c r="N14" s="11">
+        <f>+N3/J3-1</f>
+        <v>0.94459672245873949</v>
+      </c>
+      <c r="V14" s="12">
+        <f>+V3/U3-1</f>
+        <v>0.9760479041916168</v>
+      </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
